--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrin\Documents\AbschlussProjekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77B8BFF-52EF-4230-B14B-213007494A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13B0A3C-2C14-4E6B-A475-6E1E8F4AF33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2655" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
   <si>
     <t>Nr.</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>Smart KochBackBuch</t>
+  </si>
+  <si>
+    <t>0.2</t>
   </si>
 </sst>
 </file>
@@ -566,12 +569,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -591,6 +588,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1582,6 +1585,46 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1613,47 +1656,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1831,13 +1834,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2344,8 +2347,8 @@
   </sheetPr>
   <dimension ref="A1:BJ45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AR16" sqref="AR16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2664,88 +2667,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="103"/>
+      <c r="D7" s="113"/>
       <c r="E7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="104" t="s">
+      <c r="G7" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="104" t="s">
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="105"/>
-      <c r="U7" s="104" t="s">
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="104"/>
-      <c r="Z7" s="104"/>
-      <c r="AA7" s="105"/>
-      <c r="AB7" s="106" t="s">
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="AC7" s="104"/>
-      <c r="AD7" s="104"/>
-      <c r="AE7" s="104"/>
-      <c r="AF7" s="104"/>
-      <c r="AG7" s="104"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="104" t="s">
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="114"/>
+      <c r="AE7" s="114"/>
+      <c r="AF7" s="114"/>
+      <c r="AG7" s="114"/>
+      <c r="AH7" s="115"/>
+      <c r="AI7" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="AJ7" s="104"/>
-      <c r="AK7" s="104"/>
-      <c r="AL7" s="104"/>
-      <c r="AM7" s="104"/>
-      <c r="AN7" s="104"/>
-      <c r="AO7" s="105"/>
-      <c r="AP7" s="106" t="s">
+      <c r="AJ7" s="114"/>
+      <c r="AK7" s="114"/>
+      <c r="AL7" s="114"/>
+      <c r="AM7" s="114"/>
+      <c r="AN7" s="114"/>
+      <c r="AO7" s="115"/>
+      <c r="AP7" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="AQ7" s="104"/>
-      <c r="AR7" s="104"/>
-      <c r="AS7" s="104"/>
-      <c r="AT7" s="104"/>
-      <c r="AU7" s="104"/>
-      <c r="AV7" s="105"/>
-      <c r="AW7" s="104" t="s">
+      <c r="AQ7" s="114"/>
+      <c r="AR7" s="114"/>
+      <c r="AS7" s="114"/>
+      <c r="AT7" s="114"/>
+      <c r="AU7" s="114"/>
+      <c r="AV7" s="115"/>
+      <c r="AW7" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="AX7" s="104"/>
-      <c r="AY7" s="104"/>
-      <c r="AZ7" s="104"/>
-      <c r="BA7" s="104"/>
-      <c r="BB7" s="104"/>
-      <c r="BC7" s="105"/>
-      <c r="BD7" s="106" t="s">
+      <c r="AX7" s="114"/>
+      <c r="AY7" s="114"/>
+      <c r="AZ7" s="114"/>
+      <c r="BA7" s="114"/>
+      <c r="BB7" s="114"/>
+      <c r="BC7" s="115"/>
+      <c r="BD7" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="BE7" s="104"/>
-      <c r="BF7" s="104"/>
-      <c r="BG7" s="104"/>
-      <c r="BH7" s="104"/>
-      <c r="BI7" s="104"/>
-      <c r="BJ7" s="107"/>
+      <c r="BE7" s="114"/>
+      <c r="BF7" s="114"/>
+      <c r="BG7" s="114"/>
+      <c r="BH7" s="114"/>
+      <c r="BI7" s="114"/>
+      <c r="BJ7" s="117"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
@@ -2946,7 +2949,7 @@
       </c>
       <c r="D9" s="41">
         <f>SUM(D10:D13)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="30"/>
@@ -3106,7 +3109,7 @@
       </c>
       <c r="D11" s="80">
         <f>SUM(G11:BJ11)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="49">
         <v>1</v>
@@ -3124,7 +3127,9 @@
       <c r="N11" s="58"/>
       <c r="O11" s="59"/>
       <c r="P11" s="59"/>
-      <c r="Q11" s="116"/>
+      <c r="Q11" s="122">
+        <v>2</v>
+      </c>
       <c r="R11" s="55"/>
       <c r="S11" s="56"/>
       <c r="T11" s="57" t="s">
@@ -3500,9 +3505,9 @@
       <c r="T16" s="57"/>
       <c r="U16" s="58"/>
       <c r="V16" s="59"/>
-      <c r="W16" s="117"/>
+      <c r="W16" s="107"/>
       <c r="X16" s="54"/>
-      <c r="Y16" s="118"/>
+      <c r="Y16" s="108"/>
       <c r="Z16" s="56"/>
       <c r="AA16" s="57"/>
       <c r="AB16" s="98"/>
@@ -3623,7 +3628,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3710,7 +3715,9 @@
       <c r="N19" s="52"/>
       <c r="O19" s="53"/>
       <c r="P19" s="88"/>
-      <c r="Q19" s="113"/>
+      <c r="Q19" s="104" t="s">
+        <v>61</v>
+      </c>
       <c r="R19" s="55"/>
       <c r="S19" s="56"/>
       <c r="T19" s="57"/>
@@ -3769,7 +3776,7 @@
       </c>
       <c r="D20" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
@@ -3783,8 +3790,10 @@
       <c r="N20" s="58"/>
       <c r="O20" s="59"/>
       <c r="P20" s="88"/>
-      <c r="Q20" s="113"/>
-      <c r="R20" s="115"/>
+      <c r="Q20" s="104">
+        <v>5</v>
+      </c>
+      <c r="R20" s="106"/>
       <c r="S20" s="56"/>
       <c r="T20" s="57"/>
       <c r="U20" s="58"/>
@@ -3857,7 +3866,7 @@
       <c r="O21" s="59"/>
       <c r="P21" s="88"/>
       <c r="Q21" s="55"/>
-      <c r="R21" s="112"/>
+      <c r="R21" s="103"/>
       <c r="S21" s="56"/>
       <c r="T21" s="57"/>
       <c r="U21" s="58"/>
@@ -3930,7 +3939,7 @@
       <c r="O22" s="59"/>
       <c r="P22" s="88"/>
       <c r="Q22" s="55"/>
-      <c r="R22" s="112"/>
+      <c r="R22" s="103"/>
       <c r="S22" s="56"/>
       <c r="T22" s="57"/>
       <c r="U22" s="58"/>
@@ -4003,7 +4012,7 @@
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
       <c r="Q23" s="55"/>
-      <c r="R23" s="112"/>
+      <c r="R23" s="103"/>
       <c r="S23" s="56"/>
       <c r="T23" s="57"/>
       <c r="U23" s="58"/>
@@ -4081,7 +4090,7 @@
       <c r="T24" s="57"/>
       <c r="U24" s="58"/>
       <c r="V24" s="59"/>
-      <c r="W24" s="112"/>
+      <c r="W24" s="103"/>
       <c r="X24" s="55"/>
       <c r="Y24" s="55"/>
       <c r="Z24" s="56"/>
@@ -4154,8 +4163,8 @@
       <c r="T25" s="57"/>
       <c r="U25" s="58"/>
       <c r="V25" s="59"/>
-      <c r="W25" s="119"/>
-      <c r="X25" s="112"/>
+      <c r="W25" s="109"/>
+      <c r="X25" s="103"/>
       <c r="Y25" s="55"/>
       <c r="Z25" s="56"/>
       <c r="AA25" s="57"/>
@@ -4228,8 +4237,8 @@
       <c r="U26" s="58"/>
       <c r="V26" s="59"/>
       <c r="W26" s="55"/>
-      <c r="X26" s="119"/>
-      <c r="Y26" s="112"/>
+      <c r="X26" s="109"/>
+      <c r="Y26" s="103"/>
       <c r="Z26" s="56"/>
       <c r="AA26" s="57"/>
       <c r="AB26" s="102"/>
@@ -4301,11 +4310,11 @@
       <c r="U27" s="58"/>
       <c r="V27" s="59"/>
       <c r="W27" s="55"/>
-      <c r="X27" s="119"/>
+      <c r="X27" s="109"/>
       <c r="Y27" s="55"/>
       <c r="Z27" s="56"/>
       <c r="AA27" s="57"/>
-      <c r="AB27" s="114"/>
+      <c r="AB27" s="105"/>
       <c r="AC27" s="102"/>
       <c r="AD27" s="102"/>
       <c r="AE27" s="88"/>
@@ -4375,11 +4384,11 @@
       <c r="V28" s="59"/>
       <c r="W28" s="55"/>
       <c r="X28" s="55"/>
-      <c r="Y28" s="119"/>
+      <c r="Y28" s="109"/>
       <c r="Z28" s="56"/>
       <c r="AA28" s="57"/>
-      <c r="AB28" s="121"/>
-      <c r="AC28" s="114"/>
+      <c r="AB28" s="111"/>
+      <c r="AC28" s="105"/>
       <c r="AD28" s="102"/>
       <c r="AE28" s="88"/>
       <c r="AF28" s="89"/>
@@ -4452,8 +4461,8 @@
       <c r="Z29" s="56"/>
       <c r="AA29" s="57"/>
       <c r="AB29" s="102"/>
-      <c r="AC29" s="114"/>
-      <c r="AD29" s="114"/>
+      <c r="AC29" s="105"/>
+      <c r="AD29" s="105"/>
       <c r="AE29" s="88"/>
       <c r="AF29" s="89"/>
       <c r="AG29" s="56"/>
@@ -5011,12 +5020,12 @@
       <c r="T37" s="57"/>
       <c r="U37" s="58"/>
       <c r="V37" s="59"/>
-      <c r="W37" s="120"/>
+      <c r="W37" s="110"/>
       <c r="X37" s="54"/>
       <c r="Y37" s="55"/>
       <c r="Z37" s="56"/>
       <c r="AA37" s="57"/>
-      <c r="AB37" s="122"/>
+      <c r="AB37" s="112"/>
       <c r="AC37" s="60"/>
       <c r="AD37" s="54"/>
       <c r="AE37" s="88"/>
@@ -5562,7 +5571,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5608,7 +5617,7 @@
       </c>
       <c r="Q45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R45" s="38">
         <f t="shared" si="4"/>
@@ -5837,10 +5846,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="111"/>
+      <c r="B2" s="121"/>
       <c r="C2" s="76" t="s">
         <v>13</v>
       </c>
@@ -5849,28 +5858,28 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="108" t="str">
+      <c r="A3" s="118" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="109"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="77">
         <f>Zeitplanung!C9</f>
         <v>6.5</v>
       </c>
       <c r="D3" s="77">
         <f>Zeitplanung!D9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="79"/>
       <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="108" t="str">
+      <c r="A4" s="118" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="109"/>
+      <c r="B4" s="119"/>
       <c r="C4" s="77">
         <f>Zeitplanung!C14</f>
         <v>5</v>
@@ -5883,28 +5892,28 @@
       <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="108" t="str">
+      <c r="A5" s="118" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="109"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="77">
         <f>Zeitplanung!C18</f>
         <v>53</v>
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="108" t="str">
+      <c r="A6" s="118" t="str">
         <f>Zeitplanung!B34</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="109"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="77">
         <f>Zeitplanung!C34</f>
         <v>6</v>
@@ -5916,11 +5925,11 @@
       <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="108" t="str">
+      <c r="A7" s="118" t="str">
         <f>Zeitplanung!B38</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="109"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="77">
         <f>Zeitplanung!C38</f>
         <v>0</v>
@@ -5932,11 +5941,11 @@
       <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="108" t="str">
+      <c r="A8" s="118" t="str">
         <f>Zeitplanung!B41</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="109"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="77">
         <f>Zeitplanung!C41</f>
         <v>0</v>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrin\Documents\AbschlussProjekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13B0A3C-2C14-4E6B-A475-6E1E8F4AF33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A558280C-79D6-46CB-B055-5A00DC5F929A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2655" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1625,6 +1625,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1655,10 +1659,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1840,7 +1840,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2348,7 +2348,7 @@
   <dimension ref="A1:BJ45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2667,88 +2667,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="113" t="s">
+      <c r="C7" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="113"/>
+      <c r="D7" s="114"/>
       <c r="E7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="114" t="s">
+      <c r="G7" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="114" t="s">
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="114" t="s">
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="114"/>
-      <c r="AA7" s="115"/>
-      <c r="AB7" s="116" t="s">
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="115"/>
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="AC7" s="114"/>
-      <c r="AD7" s="114"/>
-      <c r="AE7" s="114"/>
-      <c r="AF7" s="114"/>
-      <c r="AG7" s="114"/>
-      <c r="AH7" s="115"/>
-      <c r="AI7" s="114" t="s">
+      <c r="AC7" s="115"/>
+      <c r="AD7" s="115"/>
+      <c r="AE7" s="115"/>
+      <c r="AF7" s="115"/>
+      <c r="AG7" s="115"/>
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="AJ7" s="114"/>
-      <c r="AK7" s="114"/>
-      <c r="AL7" s="114"/>
-      <c r="AM7" s="114"/>
-      <c r="AN7" s="114"/>
-      <c r="AO7" s="115"/>
-      <c r="AP7" s="116" t="s">
+      <c r="AJ7" s="115"/>
+      <c r="AK7" s="115"/>
+      <c r="AL7" s="115"/>
+      <c r="AM7" s="115"/>
+      <c r="AN7" s="115"/>
+      <c r="AO7" s="116"/>
+      <c r="AP7" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="AQ7" s="114"/>
-      <c r="AR7" s="114"/>
-      <c r="AS7" s="114"/>
-      <c r="AT7" s="114"/>
-      <c r="AU7" s="114"/>
-      <c r="AV7" s="115"/>
-      <c r="AW7" s="114" t="s">
+      <c r="AQ7" s="115"/>
+      <c r="AR7" s="115"/>
+      <c r="AS7" s="115"/>
+      <c r="AT7" s="115"/>
+      <c r="AU7" s="115"/>
+      <c r="AV7" s="116"/>
+      <c r="AW7" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="AX7" s="114"/>
-      <c r="AY7" s="114"/>
-      <c r="AZ7" s="114"/>
-      <c r="BA7" s="114"/>
-      <c r="BB7" s="114"/>
-      <c r="BC7" s="115"/>
-      <c r="BD7" s="116" t="s">
+      <c r="AX7" s="115"/>
+      <c r="AY7" s="115"/>
+      <c r="AZ7" s="115"/>
+      <c r="BA7" s="115"/>
+      <c r="BB7" s="115"/>
+      <c r="BC7" s="116"/>
+      <c r="BD7" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="BE7" s="114"/>
-      <c r="BF7" s="114"/>
-      <c r="BG7" s="114"/>
-      <c r="BH7" s="114"/>
-      <c r="BI7" s="114"/>
-      <c r="BJ7" s="117"/>
+      <c r="BE7" s="115"/>
+      <c r="BF7" s="115"/>
+      <c r="BG7" s="115"/>
+      <c r="BH7" s="115"/>
+      <c r="BI7" s="115"/>
+      <c r="BJ7" s="118"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
@@ -3127,7 +3127,7 @@
       <c r="N11" s="58"/>
       <c r="O11" s="59"/>
       <c r="P11" s="59"/>
-      <c r="Q11" s="122">
+      <c r="Q11" s="113">
         <v>2</v>
       </c>
       <c r="R11" s="55"/>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D33)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="D21" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E21" s="49"/>
       <c r="F21" s="51"/>
@@ -3866,7 +3866,9 @@
       <c r="O21" s="59"/>
       <c r="P21" s="88"/>
       <c r="Q21" s="55"/>
-      <c r="R21" s="103"/>
+      <c r="R21" s="103">
+        <v>8</v>
+      </c>
       <c r="S21" s="56"/>
       <c r="T21" s="57"/>
       <c r="U21" s="58"/>
@@ -5571,7 +5573,7 @@
       </c>
       <c r="D45" s="36">
         <f>D41+D38+D34+D18+D14+D9</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5621,7 +5623,7 @@
       </c>
       <c r="R45" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S45" s="38">
         <f t="shared" si="4"/>
@@ -5846,10 +5848,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="121"/>
+      <c r="B2" s="122"/>
       <c r="C2" s="76" t="s">
         <v>13</v>
       </c>
@@ -5858,11 +5860,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="118" t="str">
+      <c r="A3" s="119" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="119"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="77">
         <f>Zeitplanung!C9</f>
         <v>6.5</v>
@@ -5875,11 +5877,11 @@
       <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="118" t="str">
+      <c r="A4" s="119" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="119"/>
+      <c r="B4" s="120"/>
       <c r="C4" s="77">
         <f>Zeitplanung!C14</f>
         <v>5</v>
@@ -5892,28 +5894,28 @@
       <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="118" t="str">
+      <c r="A5" s="119" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="119"/>
+      <c r="B5" s="120"/>
       <c r="C5" s="77">
         <f>Zeitplanung!C18</f>
         <v>53</v>
       </c>
       <c r="D5" s="77">
         <f>Zeitplanung!D18</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="118" t="str">
+      <c r="A6" s="119" t="str">
         <f>Zeitplanung!B34</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="119"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="77">
         <f>Zeitplanung!C34</f>
         <v>6</v>
@@ -5925,11 +5927,11 @@
       <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="118" t="str">
+      <c r="A7" s="119" t="str">
         <f>Zeitplanung!B38</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="119"/>
+      <c r="B7" s="120"/>
       <c r="C7" s="77">
         <f>Zeitplanung!C38</f>
         <v>0</v>
@@ -5941,11 +5943,11 @@
       <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="118" t="str">
+      <c r="A8" s="119" t="str">
         <f>Zeitplanung!B41</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="119"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="77">
         <f>Zeitplanung!C41</f>
         <v>0</v>
